--- a/data/trans_orig/P6711-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0466974-DAFB-4C1A-ABF6-CD7169D9952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03353B47-3D78-4985-A067-BD8900D5DE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D302AF3D-ED00-438B-AED7-66F2627A0EA5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E6967BB-091E-4FB3-9CCE-2BD3C40EBCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="540">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,1660 +75,1588 @@
     <t>19,37%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>19,4%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
 </sst>
 </file>
@@ -2140,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFCB6AA-DE25-45E5-9DDF-B91C2559E6C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D6D2E6-C91B-4C48-931B-4B4FE619B359}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2450,16 +2378,16 @@
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>26</v>
@@ -2468,13 +2396,13 @@
         <v>26573</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -2483,13 +2411,13 @@
         <v>33699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>58</v>
@@ -2498,13 +2426,13 @@
         <v>60273</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2447,13 @@
         <v>82851</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>86</v>
@@ -2534,13 +2462,13 @@
         <v>87801</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -2549,18 +2477,18 @@
         <v>170652</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2572,13 +2500,13 @@
         <v>46448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2587,13 +2515,13 @@
         <v>32855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -2602,13 +2530,13 @@
         <v>79302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2551,13 @@
         <v>23728</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -2638,13 +2566,13 @@
         <v>28754</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -2653,13 +2581,13 @@
         <v>52482</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2602,13 @@
         <v>77072</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -2689,28 +2617,28 @@
         <v>41558</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>115</v>
       </c>
       <c r="N12" s="7">
-        <v>118630</v>
+        <v>118629</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2653,13 @@
         <v>75325</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2740,13 +2668,13 @@
         <v>50387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -2755,19 +2683,19 @@
         <v>125713</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>148</v>
@@ -2776,13 +2704,13 @@
         <v>160204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>114</v>
@@ -2791,13 +2719,13 @@
         <v>121325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>262</v>
@@ -2806,13 +2734,13 @@
         <v>281530</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2755,13 @@
         <v>382777</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>256</v>
@@ -2842,33 +2770,33 @@
         <v>274879</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>624</v>
       </c>
       <c r="N15" s="7">
-        <v>657657</v>
+        <v>657656</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2880,13 +2808,13 @@
         <v>48747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2895,13 +2823,13 @@
         <v>28224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -2910,13 +2838,13 @@
         <v>76971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2859,13 @@
         <v>38374</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2946,10 +2874,10 @@
         <v>18942</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>121</v>
@@ -3075,7 +3003,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>190</v>
@@ -3135,13 +3063,13 @@
         <v>424302</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>273</v>
@@ -3150,13 +3078,13 @@
         <v>285818</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>682</v>
@@ -3165,13 +3093,13 @@
         <v>710120</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3122,7 @@
         <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3203,13 +3131,13 @@
         <v>42953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -3218,13 +3146,13 @@
         <v>73853</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,10 +3185,10 @@
         <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -3269,13 +3197,13 @@
         <v>31608</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3218,13 @@
         <v>75874</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -3305,13 +3233,13 @@
         <v>25333</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -3320,13 +3248,13 @@
         <v>101208</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3269,13 @@
         <v>77375</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -3356,13 +3284,13 @@
         <v>44356</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -3371,19 +3299,19 @@
         <v>121731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>151</v>
@@ -3392,13 +3320,13 @@
         <v>168392</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
@@ -3407,13 +3335,13 @@
         <v>95134</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>233</v>
@@ -3422,13 +3350,13 @@
         <v>263526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3371,13 @@
         <v>367663</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>192</v>
@@ -3458,13 +3386,13 @@
         <v>224263</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>518</v>
@@ -3473,18 +3401,18 @@
         <v>591926</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3496,13 +3424,13 @@
         <v>15961</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -3511,13 +3439,13 @@
         <v>7598</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -3526,13 +3454,13 @@
         <v>23559</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3475,13 @@
         <v>2032</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3562,13 +3490,13 @@
         <v>1958</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3577,13 +3505,13 @@
         <v>3990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3526,13 @@
         <v>25198</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3613,13 +3541,13 @@
         <v>10510</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -3628,13 +3556,13 @@
         <v>35708</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3577,13 @@
         <v>26054</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -3664,13 +3592,13 @@
         <v>10359</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -3682,16 +3610,16 @@
         <v>134</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>83</v>
@@ -3700,13 +3628,13 @@
         <v>88106</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>36</v>
@@ -3715,13 +3643,13 @@
         <v>39265</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>119</v>
@@ -3730,13 +3658,13 @@
         <v>127371</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3679,13 @@
         <v>157351</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>63</v>
@@ -3766,13 +3694,13 @@
         <v>69691</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>210</v>
@@ -3781,18 +3709,18 @@
         <v>227041</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3804,13 +3732,13 @@
         <v>1000</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3819,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3834,13 +3762,13 @@
         <v>1000</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3870,13 +3798,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3885,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3921,13 +3849,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3936,13 +3864,13 @@
         <v>891</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3972,13 +3900,13 @@
         <v>967</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3987,19 +3915,19 @@
         <v>967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>2</v>
@@ -4008,13 +3936,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4023,13 +3951,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4038,13 +3966,13 @@
         <v>2997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +3987,13 @@
         <v>3016</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -4074,13 +4002,13 @@
         <v>2838</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -4089,13 +4017,13 @@
         <v>5854</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,10 +4043,10 @@
         <v>34</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H40" s="7">
         <v>120</v>
@@ -4127,13 +4055,13 @@
         <v>130995</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="M40" s="7">
         <v>268</v>
@@ -4142,13 +4070,13 @@
         <v>290101</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4091,13 @@
         <v>85180</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H41" s="7">
         <v>65</v>
@@ -4178,13 +4106,13 @@
         <v>72949</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M41" s="7">
         <v>146</v>
@@ -4193,13 +4121,13 @@
         <v>158129</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4142,13 @@
         <v>265481</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H42" s="7">
         <v>130</v>
@@ -4229,13 +4157,13 @@
         <v>139432</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M42" s="7">
         <v>377</v>
@@ -4244,13 +4172,13 @@
         <v>404913</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4193,13 @@
         <v>262402</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="H43" s="7">
         <v>169</v>
@@ -4280,13 +4208,13 @@
         <v>179957</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M43" s="7">
         <v>424</v>
@@ -4295,19 +4223,19 @@
         <v>442358</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>600</v>
@@ -4316,13 +4244,13 @@
         <v>645791</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H44" s="7">
         <v>389</v>
@@ -4331,13 +4259,13 @@
         <v>421957</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M44" s="7">
         <v>989</v>
@@ -4346,13 +4274,13 @@
         <v>1067748</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4295,13 @@
         <v>1417960</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>873</v>
@@ -4382,13 +4310,13 @@
         <v>945290</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>2204</v>
@@ -4397,18 +4325,18 @@
         <v>2363250</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4430,7 +4358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597C09A0-F3B4-4527-8C4D-12F44259466C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639650E-26ED-4F98-B485-6EA18134DE73}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4447,7 +4375,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +4482,13 @@
         <v>14277</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4569,13 +4497,13 @@
         <v>13287</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4584,13 +4512,13 @@
         <v>27564</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4533,13 @@
         <v>13709</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4620,13 +4548,13 @@
         <v>13777</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -4635,13 +4563,13 @@
         <v>27486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4584,13 @@
         <v>19682</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4671,13 +4599,13 @@
         <v>20864</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -4686,13 +4614,13 @@
         <v>40547</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4635,13 @@
         <v>14727</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4722,13 +4650,13 @@
         <v>24290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4737,19 +4665,19 @@
         <v>39017</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>15</v>
@@ -4758,13 +4686,13 @@
         <v>16714</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4773,13 +4701,13 @@
         <v>19637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -4788,13 +4716,13 @@
         <v>36351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4737,13 @@
         <v>79109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -4824,13 +4752,13 @@
         <v>91855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -4839,18 +4767,18 @@
         <v>170964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4862,13 +4790,13 @@
         <v>59624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4877,13 +4805,13 @@
         <v>45892</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -4892,13 +4820,13 @@
         <v>105517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4841,13 @@
         <v>54745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -4928,13 +4856,13 @@
         <v>50657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -4943,13 +4871,13 @@
         <v>105403</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4892,13 @@
         <v>70743</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -4979,13 +4907,13 @@
         <v>60846</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>133</v>
@@ -4994,13 +4922,13 @@
         <v>131589</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +4943,13 @@
         <v>81003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -5030,13 +4958,13 @@
         <v>60780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -5045,19 +4973,19 @@
         <v>141783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>74</v>
@@ -5066,13 +4994,13 @@
         <v>78070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -5081,13 +5009,13 @@
         <v>55540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -5096,13 +5024,13 @@
         <v>133610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5045,13 @@
         <v>344185</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>283</v>
@@ -5132,13 +5060,13 @@
         <v>273716</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -5147,18 +5075,18 @@
         <v>617902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5170,13 +5098,13 @@
         <v>55458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5185,13 +5113,13 @@
         <v>57130</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -5200,13 +5128,13 @@
         <v>112588</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5149,13 @@
         <v>58180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -5236,13 +5164,13 @@
         <v>33671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -5251,13 +5179,13 @@
         <v>91851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5200,13 @@
         <v>103170</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -5287,13 +5215,13 @@
         <v>81371</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="M18" s="7">
         <v>183</v>
@@ -5302,13 +5230,13 @@
         <v>184541</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5251,13 @@
         <v>106643</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -5338,13 +5266,13 @@
         <v>57950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="M19" s="7">
         <v>158</v>
@@ -5353,19 +5281,19 @@
         <v>164593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>130</v>
@@ -5374,13 +5302,13 @@
         <v>136136</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -5389,13 +5317,13 @@
         <v>87292</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>215</v>
@@ -5404,13 +5332,13 @@
         <v>223428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5353,13 @@
         <v>459588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -5440,13 +5368,13 @@
         <v>317414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>756</v>
@@ -5455,13 +5383,13 @@
         <v>777002</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5406,13 @@
         <v>64498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5493,13 +5421,13 @@
         <v>51191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -5508,13 +5436,13 @@
         <v>115689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5457,13 @@
         <v>37477</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -5544,13 +5472,13 @@
         <v>30152</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -5559,13 +5487,13 @@
         <v>67629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>434</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5508,13 @@
         <v>89029</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -5595,13 +5523,13 @@
         <v>50699</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -5610,13 +5538,13 @@
         <v>139728</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5559,13 @@
         <v>87629</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5646,13 +5574,13 @@
         <v>48634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -5661,19 +5589,19 @@
         <v>136263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>81</v>
@@ -5682,13 +5610,13 @@
         <v>89095</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -5697,13 +5625,13 @@
         <v>62443</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>138</v>
@@ -5712,13 +5640,13 @@
         <v>151537</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5661,13 @@
         <v>367728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -5748,13 +5676,13 @@
         <v>243118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>554</v>
@@ -5763,18 +5691,18 @@
         <v>610846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5786,13 +5714,13 @@
         <v>15121</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -5801,13 +5729,13 @@
         <v>26901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -5816,13 +5744,13 @@
         <v>42021</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5765,13 @@
         <v>18282</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>476</v>
+        <v>123</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>477</v>
+        <v>300</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5852,13 +5780,13 @@
         <v>15165</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -5867,13 +5795,13 @@
         <v>33448</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5816,13 @@
         <v>39151</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -5903,13 +5831,13 @@
         <v>21501</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -5918,13 +5846,13 @@
         <v>60652</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>489</v>
+        <v>272</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5867,13 @@
         <v>29932</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>64</v>
+        <v>468</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -5954,13 +5882,13 @@
         <v>15830</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -5969,19 +5897,19 @@
         <v>45762</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>497</v>
+        <v>255</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>56</v>
@@ -5990,13 +5918,13 @@
         <v>63240</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -6005,13 +5933,13 @@
         <v>26482</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>503</v>
+        <v>399</v>
       </c>
       <c r="M32" s="7">
         <v>78</v>
@@ -6020,13 +5948,13 @@
         <v>89722</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +5969,13 @@
         <v>165726</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>90</v>
@@ -6056,13 +5984,13 @@
         <v>105879</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -6071,18 +5999,18 @@
         <v>271605</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6094,13 +6022,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6109,13 +6037,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6124,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6073,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6160,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6175,13 +6103,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6124,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6211,13 +6139,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6226,13 +6154,13 @@
         <v>2233</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6175,13 @@
         <v>795</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6262,13 +6190,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -6277,19 +6205,19 @@
         <v>795</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -6298,13 +6226,13 @@
         <v>4140</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>178</v>
+        <v>496</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -6313,13 +6241,13 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -6328,13 +6256,13 @@
         <v>8148</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6277,13 @@
         <v>5985</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -6364,13 +6292,13 @@
         <v>5190</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -6379,13 +6307,13 @@
         <v>11176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6330,13 @@
         <v>208978</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="H40" s="7">
         <v>187</v>
@@ -6417,13 +6345,13 @@
         <v>194402</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="M40" s="7">
         <v>377</v>
@@ -6432,13 +6360,13 @@
         <v>403380</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>531</v>
+        <v>96</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6381,13 @@
         <v>182394</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="H41" s="7">
         <v>142</v>
@@ -6468,13 +6396,13 @@
         <v>143422</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>29</v>
+        <v>513</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="M41" s="7">
         <v>310</v>
@@ -6483,13 +6411,13 @@
         <v>325816</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>540</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6432,13 @@
         <v>322826</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="H42" s="7">
         <v>234</v>
@@ -6519,13 +6447,13 @@
         <v>236464</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>419</v>
+        <v>520</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>289</v>
+        <v>521</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="M42" s="7">
         <v>540</v>
@@ -6534,13 +6462,13 @@
         <v>559290</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>545</v>
+        <v>130</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>179</v>
+        <v>523</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6483,13 @@
         <v>320729</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="H43" s="7">
         <v>205</v>
@@ -6570,13 +6498,13 @@
         <v>207484</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="M43" s="7">
         <v>504</v>
@@ -6585,19 +6513,19 @@
         <v>528213</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>360</v>
@@ -6606,13 +6534,13 @@
         <v>387395</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="H44" s="7">
         <v>245</v>
@@ -6621,13 +6549,13 @@
         <v>255401</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>558</v>
+        <v>139</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="M44" s="7">
         <v>605</v>
@@ -6636,13 +6564,13 @@
         <v>642796</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6585,13 @@
         <v>1422322</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>1013</v>
@@ -6672,13 +6600,13 @@
         <v>1037172</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>2336</v>
@@ -6687,18 +6615,18 @@
         <v>2459494</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6711-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03353B47-3D78-4985-A067-BD8900D5DE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1A2542E-6D8B-401A-A9D7-177ABA22C3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E6967BB-091E-4FB3-9CCE-2BD3C40EBCEF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5219A50-B48A-45E1-B931-FF9DA809AAFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="546">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,1588 +75,1606 @@
     <t>19,37%</t>
   </si>
   <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>22,74%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>22,02%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
 </sst>
 </file>
@@ -2068,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D6D2E6-C91B-4C48-931B-4B4FE619B359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A9A9C9-8929-4BE3-AA28-9C33B0104BFF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2351,7 +2369,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2360,13 +2378,13 @@
         <v>18077</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -2375,19 +2393,19 @@
         <v>33648</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>26</v>
@@ -2396,13 +2414,13 @@
         <v>26573</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -2411,13 +2429,13 @@
         <v>33699</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>58</v>
@@ -2426,13 +2444,13 @@
         <v>60273</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2465,13 @@
         <v>82851</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>86</v>
@@ -2462,13 +2480,13 @@
         <v>87801</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -2477,18 +2495,18 @@
         <v>170652</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2500,13 +2518,13 @@
         <v>46448</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2515,13 +2533,13 @@
         <v>32855</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -2530,13 +2548,13 @@
         <v>79302</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2569,13 @@
         <v>23728</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -2566,13 +2584,13 @@
         <v>28754</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -2581,13 +2599,13 @@
         <v>52482</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2620,13 @@
         <v>77072</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -2617,28 +2635,28 @@
         <v>41558</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>115</v>
       </c>
       <c r="N12" s="7">
-        <v>118629</v>
+        <v>118630</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2671,13 @@
         <v>75325</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2668,13 +2686,13 @@
         <v>50387</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -2683,19 +2701,19 @@
         <v>125713</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>148</v>
@@ -2704,13 +2722,13 @@
         <v>160204</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>114</v>
@@ -2719,13 +2737,13 @@
         <v>121325</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>262</v>
@@ -2734,13 +2752,13 @@
         <v>281530</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2773,13 @@
         <v>382777</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>256</v>
@@ -2770,33 +2788,33 @@
         <v>274879</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>624</v>
       </c>
       <c r="N15" s="7">
-        <v>657656</v>
+        <v>657657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2808,13 +2826,13 @@
         <v>48747</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2823,13 +2841,13 @@
         <v>28224</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -2838,13 +2856,13 @@
         <v>76971</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2877,13 @@
         <v>38374</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2874,10 +2892,10 @@
         <v>18942</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>121</v>
@@ -3003,7 +3021,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>190</v>
@@ -3063,13 +3081,13 @@
         <v>424302</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>273</v>
@@ -3078,13 +3096,13 @@
         <v>285818</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>682</v>
@@ -3093,13 +3111,13 @@
         <v>710120</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3170,7 @@
         <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3185,13 @@
         <v>15121</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -3182,13 +3200,13 @@
         <v>16487</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -3197,13 +3215,13 @@
         <v>31608</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3236,13 @@
         <v>75874</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -3233,13 +3251,13 @@
         <v>25333</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -3248,13 +3266,13 @@
         <v>101208</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3287,13 @@
         <v>77375</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -3284,13 +3302,13 @@
         <v>44356</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -3299,19 +3317,19 @@
         <v>121731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>151</v>
@@ -3320,13 +3338,13 @@
         <v>168392</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
@@ -3335,13 +3353,13 @@
         <v>95134</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>233</v>
@@ -3350,13 +3368,13 @@
         <v>263526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3389,13 @@
         <v>367663</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>192</v>
@@ -3386,13 +3404,13 @@
         <v>224263</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>518</v>
@@ -3401,18 +3419,18 @@
         <v>591926</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3424,13 +3442,13 @@
         <v>15961</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -3439,13 +3457,13 @@
         <v>7598</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -3454,13 +3472,13 @@
         <v>23559</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3493,13 @@
         <v>2032</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3490,13 +3508,13 @@
         <v>1958</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3505,13 +3523,13 @@
         <v>3990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3544,13 @@
         <v>25198</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3541,13 +3559,13 @@
         <v>10510</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -3556,13 +3574,13 @@
         <v>35708</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3595,13 @@
         <v>26054</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -3592,13 +3610,13 @@
         <v>10359</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -3610,16 +3628,16 @@
         <v>134</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>83</v>
@@ -3628,13 +3646,13 @@
         <v>88106</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>36</v>
@@ -3643,13 +3661,13 @@
         <v>39265</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>119</v>
@@ -3658,13 +3676,13 @@
         <v>127371</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3697,13 @@
         <v>157351</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>63</v>
@@ -3694,13 +3712,13 @@
         <v>69691</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>210</v>
@@ -3709,18 +3727,18 @@
         <v>227041</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3732,13 +3750,13 @@
         <v>1000</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3747,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3762,13 +3780,13 @@
         <v>1000</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3801,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3798,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3813,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3852,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3849,13 +3867,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3864,13 +3882,13 @@
         <v>891</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3900,13 +3918,13 @@
         <v>967</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3915,19 +3933,19 @@
         <v>967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>2</v>
@@ -3936,13 +3954,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3951,13 +3969,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -3966,13 +3984,13 @@
         <v>2997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +4005,13 @@
         <v>3016</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -4002,13 +4020,13 @@
         <v>2838</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -4017,13 +4035,13 @@
         <v>5854</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,10 +4061,10 @@
         <v>34</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H40" s="7">
         <v>120</v>
@@ -4055,13 +4073,13 @@
         <v>130995</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="M40" s="7">
         <v>268</v>
@@ -4070,13 +4088,13 @@
         <v>290101</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4109,13 @@
         <v>85180</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H41" s="7">
         <v>65</v>
@@ -4106,13 +4124,13 @@
         <v>72949</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M41" s="7">
         <v>146</v>
@@ -4121,13 +4139,13 @@
         <v>158129</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4160,13 @@
         <v>265481</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H42" s="7">
         <v>130</v>
@@ -4157,13 +4175,13 @@
         <v>139432</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M42" s="7">
         <v>377</v>
@@ -4172,10 +4190,10 @@
         <v>404913</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>274</v>
@@ -4193,13 +4211,13 @@
         <v>262402</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H43" s="7">
         <v>169</v>
@@ -4208,13 +4226,13 @@
         <v>179957</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M43" s="7">
         <v>424</v>
@@ -4223,19 +4241,19 @@
         <v>442358</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>600</v>
@@ -4244,13 +4262,13 @@
         <v>645791</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H44" s="7">
         <v>389</v>
@@ -4259,13 +4277,13 @@
         <v>421957</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M44" s="7">
         <v>989</v>
@@ -4274,13 +4292,13 @@
         <v>1067748</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4313,13 @@
         <v>1417960</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>873</v>
@@ -4310,13 +4328,13 @@
         <v>945290</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>2204</v>
@@ -4325,18 +4343,18 @@
         <v>2363250</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639650E-26ED-4F98-B485-6EA18134DE73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED1B6C3-9D43-49F8-83E4-421D08A5A9CF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4375,7 +4393,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4482,13 +4500,13 @@
         <v>14277</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4497,13 +4515,13 @@
         <v>13287</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4512,13 +4530,13 @@
         <v>27564</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4551,13 @@
         <v>13709</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4548,13 +4566,13 @@
         <v>13777</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -4563,13 +4581,13 @@
         <v>27486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4602,13 @@
         <v>19682</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4599,13 +4617,13 @@
         <v>20864</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -4614,13 +4632,13 @@
         <v>40547</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4653,13 @@
         <v>14727</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4650,13 +4668,13 @@
         <v>24290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4665,19 +4683,19 @@
         <v>39017</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>15</v>
@@ -4686,13 +4704,13 @@
         <v>16714</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4701,13 +4719,13 @@
         <v>19637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>129</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -4716,13 +4734,13 @@
         <v>36351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4755,13 @@
         <v>79109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -4752,13 +4770,13 @@
         <v>91855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -4767,18 +4785,18 @@
         <v>170964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4790,13 +4808,13 @@
         <v>59624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4805,13 +4823,13 @@
         <v>45892</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -4820,13 +4838,13 @@
         <v>105517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4859,13 @@
         <v>54745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -4856,13 +4874,13 @@
         <v>50657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -4871,13 +4889,13 @@
         <v>105403</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4910,13 @@
         <v>70743</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -4907,13 +4925,13 @@
         <v>60846</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>133</v>
@@ -4922,13 +4940,13 @@
         <v>131589</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4961,13 @@
         <v>81003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -4958,13 +4976,13 @@
         <v>60780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -4973,19 +4991,19 @@
         <v>141783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>74</v>
@@ -4994,13 +5012,13 @@
         <v>78070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -5009,13 +5027,13 @@
         <v>55540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -5024,13 +5042,13 @@
         <v>133610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5063,13 @@
         <v>344185</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>283</v>
@@ -5060,13 +5078,13 @@
         <v>273716</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -5075,18 +5093,18 @@
         <v>617902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5098,13 +5116,13 @@
         <v>55458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5113,13 +5131,13 @@
         <v>57130</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -5128,13 +5146,13 @@
         <v>112588</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5167,13 @@
         <v>58180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -5164,13 +5182,13 @@
         <v>33671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -5179,13 +5197,13 @@
         <v>91851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5218,13 @@
         <v>103170</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -5215,13 +5233,13 @@
         <v>81371</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="M18" s="7">
         <v>183</v>
@@ -5230,13 +5248,13 @@
         <v>184541</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5269,13 @@
         <v>106643</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -5266,13 +5284,13 @@
         <v>57950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>344</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>158</v>
@@ -5281,19 +5299,19 @@
         <v>164593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>130</v>
@@ -5302,13 +5320,13 @@
         <v>136136</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -5317,13 +5335,13 @@
         <v>87292</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>215</v>
@@ -5332,13 +5350,13 @@
         <v>223428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5371,13 @@
         <v>459588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -5368,13 +5386,13 @@
         <v>317414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>756</v>
@@ -5383,13 +5401,13 @@
         <v>777002</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5424,13 @@
         <v>64498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5421,13 +5439,13 @@
         <v>51191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -5436,13 +5454,13 @@
         <v>115689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5475,13 @@
         <v>37477</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>415</v>
+        <v>175</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -5472,13 +5490,13 @@
         <v>30152</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -5487,13 +5505,13 @@
         <v>67629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5526,13 @@
         <v>89029</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -5523,13 +5541,13 @@
         <v>50699</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -5538,13 +5556,13 @@
         <v>139728</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5577,13 @@
         <v>87629</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5574,13 +5592,13 @@
         <v>48634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -5589,19 +5607,19 @@
         <v>136263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>81</v>
@@ -5610,13 +5628,13 @@
         <v>89095</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -5625,13 +5643,13 @@
         <v>62443</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>454</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="M26" s="7">
         <v>138</v>
@@ -5640,13 +5658,13 @@
         <v>151537</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>332</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5679,13 @@
         <v>367728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -5676,13 +5694,13 @@
         <v>243118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>554</v>
@@ -5691,18 +5709,18 @@
         <v>610846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5714,13 +5732,13 @@
         <v>15121</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>72</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -5729,13 +5747,13 @@
         <v>26901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>353</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -5744,13 +5762,13 @@
         <v>42021</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5783,13 @@
         <v>18282</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5780,13 +5798,13 @@
         <v>15165</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>132</v>
+        <v>465</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -5795,13 +5813,13 @@
         <v>33448</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>336</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5834,13 @@
         <v>39151</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -5831,13 +5849,13 @@
         <v>21501</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -5846,13 +5864,13 @@
         <v>60652</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>272</v>
+        <v>477</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5885,13 @@
         <v>29932</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -5882,13 +5900,13 @@
         <v>15830</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>470</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -5897,19 +5915,19 @@
         <v>45762</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>255</v>
+        <v>485</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>56</v>
@@ -5918,13 +5936,13 @@
         <v>63240</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -5933,13 +5951,13 @@
         <v>26482</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>399</v>
+        <v>492</v>
       </c>
       <c r="M32" s="7">
         <v>78</v>
@@ -5948,13 +5966,13 @@
         <v>89722</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5987,13 @@
         <v>165726</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>90</v>
@@ -5984,13 +6002,13 @@
         <v>105879</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -5999,18 +6017,18 @@
         <v>271605</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6022,13 +6040,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6037,13 +6055,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6052,13 +6070,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6091,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6088,13 +6106,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6103,13 +6121,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6142,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6139,13 +6157,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6154,13 +6172,13 @@
         <v>2233</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6193,13 @@
         <v>795</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6190,13 +6208,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -6205,19 +6223,19 @@
         <v>795</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -6226,13 +6244,13 @@
         <v>4140</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -6241,13 +6259,13 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -6256,13 +6274,13 @@
         <v>8148</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6295,13 @@
         <v>5985</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -6292,13 +6310,13 @@
         <v>5190</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -6307,13 +6325,13 @@
         <v>11176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6348,13 @@
         <v>208978</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>504</v>
+        <v>357</v>
       </c>
       <c r="H40" s="7">
         <v>187</v>
@@ -6345,13 +6363,13 @@
         <v>194402</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>506</v>
+        <v>181</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="M40" s="7">
         <v>377</v>
@@ -6360,13 +6378,13 @@
         <v>403380</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>96</v>
+        <v>518</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6399,13 @@
         <v>182394</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>511</v>
+        <v>34</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="H41" s="7">
         <v>142</v>
@@ -6396,13 +6414,13 @@
         <v>143422</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>48</v>
+        <v>523</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>514</v>
+        <v>63</v>
       </c>
       <c r="M41" s="7">
         <v>310</v>
@@ -6411,13 +6429,13 @@
         <v>325816</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6450,13 @@
         <v>322826</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>518</v>
+        <v>43</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="H42" s="7">
         <v>234</v>
@@ -6447,13 +6465,13 @@
         <v>236464</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>522</v>
+        <v>411</v>
       </c>
       <c r="M42" s="7">
         <v>540</v>
@@ -6462,13 +6480,13 @@
         <v>559290</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>130</v>
+        <v>530</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6501,13 @@
         <v>320729</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>525</v>
+        <v>315</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>519</v>
+        <v>377</v>
       </c>
       <c r="H43" s="7">
         <v>205</v>
@@ -6498,13 +6516,13 @@
         <v>207484</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="M43" s="7">
         <v>504</v>
@@ -6513,19 +6531,19 @@
         <v>528213</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>360</v>
@@ -6534,13 +6552,13 @@
         <v>387395</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>532</v>
+        <v>440</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H44" s="7">
         <v>245</v>
@@ -6549,13 +6567,13 @@
         <v>255401</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>139</v>
+        <v>541</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>536</v>
+        <v>413</v>
       </c>
       <c r="M44" s="7">
         <v>605</v>
@@ -6564,13 +6582,13 @@
         <v>642796</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6603,13 @@
         <v>1422322</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>1013</v>
@@ -6600,13 +6618,13 @@
         <v>1037172</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>2336</v>
@@ -6615,18 +6633,18 @@
         <v>2459494</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6711-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1A2542E-6D8B-401A-A9D7-177ABA22C3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85475CC5-553C-4A60-867E-DBDC134DAD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5219A50-B48A-45E1-B931-FF9DA809AAFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDFFDC24-49ED-4933-8F7E-F0DCF649E50A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="564">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>19,37%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,28 +105,28 @@
     <t>7,15%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -135,1546 +135,1600 @@
     <t>22,61%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>11,44%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>22,83%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A9A9C9-8929-4BE3-AA28-9C33B0104BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCCD05B-95DE-4404-AB69-E761C36AA1C4}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2369,7 +2423,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2378,13 +2432,13 @@
         <v>18077</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -2393,10 +2447,10 @@
         <v>33648</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>48</v>
@@ -3140,7 +3194,7 @@
         <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3149,13 +3203,13 @@
         <v>42953</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -3164,13 +3218,13 @@
         <v>73853</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3239,13 @@
         <v>15121</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -3200,13 +3254,13 @@
         <v>16487</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -3215,13 +3269,13 @@
         <v>31608</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3290,13 @@
         <v>75874</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -3251,13 +3305,13 @@
         <v>25333</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -3266,13 +3320,13 @@
         <v>101208</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3341,13 @@
         <v>77375</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -3302,13 +3356,13 @@
         <v>44356</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -3317,10 +3371,10 @@
         <v>121731</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>187</v>
@@ -3371,10 +3425,10 @@
         <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,7 +3484,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3442,13 +3496,13 @@
         <v>15961</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -3457,13 +3511,13 @@
         <v>7598</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -3472,13 +3526,13 @@
         <v>23559</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3547,13 @@
         <v>2032</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3508,13 +3562,13 @@
         <v>1958</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3523,13 +3577,13 @@
         <v>3990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3598,13 @@
         <v>25198</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3559,13 +3613,13 @@
         <v>10510</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -3574,13 +3628,13 @@
         <v>35708</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3649,13 @@
         <v>26054</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -3610,13 +3664,13 @@
         <v>10359</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -3628,10 +3682,10 @@
         <v>134</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3700,13 @@
         <v>88106</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>36</v>
@@ -3661,13 +3715,13 @@
         <v>39265</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>119</v>
@@ -3676,13 +3730,13 @@
         <v>127371</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,7 +3792,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3750,13 +3804,13 @@
         <v>1000</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3765,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3780,13 +3834,13 @@
         <v>1000</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3816,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3831,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3867,13 +3921,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3882,13 +3936,13 @@
         <v>891</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3918,13 +3972,13 @@
         <v>967</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3933,13 +3987,13 @@
         <v>967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +4008,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3969,13 +4023,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -3984,10 +4038,10 @@
         <v>2997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>257</v>
@@ -4073,13 +4127,13 @@
         <v>130995</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M40" s="7">
         <v>268</v>
@@ -4088,13 +4142,13 @@
         <v>290101</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4163,13 @@
         <v>85180</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H41" s="7">
         <v>65</v>
@@ -4124,10 +4178,10 @@
         <v>72949</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>270</v>
@@ -4196,7 +4250,7 @@
         <v>281</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4265,13 @@
         <v>262402</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="H43" s="7">
         <v>169</v>
@@ -4376,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED1B6C3-9D43-49F8-83E4-421D08A5A9CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E642A7-3062-41A4-9536-B1B0623989A7}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4572,7 +4626,7 @@
         <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -4581,13 +4635,13 @@
         <v>27486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4656,13 @@
         <v>19682</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4617,13 +4671,13 @@
         <v>20864</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>320</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -4632,13 +4686,13 @@
         <v>40547</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4707,13 @@
         <v>14727</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4668,13 +4722,13 @@
         <v>24290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4683,13 +4737,13 @@
         <v>39017</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4758,13 @@
         <v>16714</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4719,13 +4773,13 @@
         <v>19637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -4734,13 +4788,13 @@
         <v>36351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4862,13 @@
         <v>59624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4823,13 +4877,13 @@
         <v>45892</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -4838,13 +4892,13 @@
         <v>105517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4913,13 @@
         <v>54745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -4874,13 +4928,13 @@
         <v>50657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -4889,13 +4943,13 @@
         <v>105403</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4964,13 @@
         <v>70743</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -4925,13 +4979,13 @@
         <v>60846</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>133</v>
@@ -4940,13 +4994,13 @@
         <v>131589</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +5015,13 @@
         <v>81003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -4976,13 +5030,13 @@
         <v>60780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -4991,13 +5045,13 @@
         <v>141783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5066,13 @@
         <v>78070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -5027,13 +5081,13 @@
         <v>55540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -5042,13 +5096,13 @@
         <v>133610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>380</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5170,13 @@
         <v>55458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5131,13 +5185,13 @@
         <v>57130</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -5146,13 +5200,13 @@
         <v>112588</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5221,13 @@
         <v>58180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -5182,13 +5236,13 @@
         <v>33671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>15</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -5197,13 +5251,13 @@
         <v>91851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5272,13 @@
         <v>103170</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -5233,13 +5287,13 @@
         <v>81371</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>183</v>
@@ -5248,13 +5302,13 @@
         <v>184541</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5323,13 @@
         <v>106643</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -5284,13 +5338,13 @@
         <v>57950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>158</v>
@@ -5299,13 +5353,13 @@
         <v>164593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5374,13 @@
         <v>136136</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -5335,13 +5389,13 @@
         <v>87292</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>215</v>
@@ -5350,13 +5404,13 @@
         <v>223428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5478,13 @@
         <v>64498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5439,13 +5493,13 @@
         <v>51191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -5454,13 +5508,13 @@
         <v>115689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>31</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5529,13 @@
         <v>37477</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>175</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -5490,13 +5544,13 @@
         <v>30152</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -5505,10 +5559,10 @@
         <v>67629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>434</v>
@@ -5526,13 +5580,13 @@
         <v>89029</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -5541,13 +5595,13 @@
         <v>50699</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -5556,13 +5610,13 @@
         <v>139728</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5631,13 @@
         <v>87629</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5592,13 +5646,13 @@
         <v>48634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -5607,13 +5661,13 @@
         <v>136263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5682,13 @@
         <v>89095</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -5643,13 +5697,13 @@
         <v>62443</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>138</v>
@@ -5658,13 +5712,13 @@
         <v>151537</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,7 +5774,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5732,13 +5786,13 @@
         <v>15121</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>72</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -5747,13 +5801,13 @@
         <v>26901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>353</v>
+        <v>470</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -5762,13 +5816,13 @@
         <v>42021</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>320</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5837,13 @@
         <v>18282</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>271</v>
+        <v>476</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5798,13 +5852,13 @@
         <v>15165</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -5813,13 +5867,13 @@
         <v>33448</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>470</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5888,13 @@
         <v>39151</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -5849,13 +5903,13 @@
         <v>21501</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -5864,13 +5918,13 @@
         <v>60652</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>476</v>
+        <v>412</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5939,13 @@
         <v>29932</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>480</v>
+        <v>64</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -5900,13 +5954,13 @@
         <v>15830</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>493</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -5915,13 +5969,13 @@
         <v>45762</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5990,13 @@
         <v>63240</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -5951,13 +6005,13 @@
         <v>26482</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="M32" s="7">
         <v>78</v>
@@ -5966,13 +6020,13 @@
         <v>89722</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,7 +6082,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6040,13 +6094,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6055,13 +6109,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6070,13 +6124,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +6145,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6106,13 +6160,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6121,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6196,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6157,13 +6211,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6172,13 +6226,13 @@
         <v>2233</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6247,13 @@
         <v>795</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6208,13 +6262,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -6223,13 +6277,13 @@
         <v>795</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6298,13 @@
         <v>4140</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>508</v>
+        <v>178</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -6259,13 +6313,13 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -6274,13 +6328,13 @@
         <v>8148</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6402,13 @@
         <v>208978</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>357</v>
+        <v>527</v>
       </c>
       <c r="H40" s="7">
         <v>187</v>
@@ -6363,13 +6417,13 @@
         <v>194402</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>181</v>
+        <v>529</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="M40" s="7">
         <v>377</v>
@@ -6378,13 +6432,13 @@
         <v>403380</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,13 +6453,13 @@
         <v>182394</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>34</v>
+        <v>535</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="H41" s="7">
         <v>142</v>
@@ -6414,13 +6468,13 @@
         <v>143422</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>523</v>
+        <v>177</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>524</v>
+        <v>29</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>63</v>
+        <v>537</v>
       </c>
       <c r="M41" s="7">
         <v>310</v>
@@ -6429,13 +6483,13 @@
         <v>325816</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>109</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6504,13 @@
         <v>322826</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>43</v>
+        <v>542</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="H42" s="7">
         <v>234</v>
@@ -6465,13 +6519,13 @@
         <v>236464</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>529</v>
+        <v>419</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>508</v>
+        <v>289</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>411</v>
+        <v>544</v>
       </c>
       <c r="M42" s="7">
         <v>540</v>
@@ -6480,13 +6534,13 @@
         <v>559290</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>531</v>
+        <v>179</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6555,13 @@
         <v>320729</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>315</v>
+        <v>547</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>377</v>
+        <v>549</v>
       </c>
       <c r="H43" s="7">
         <v>205</v>
@@ -6516,13 +6570,13 @@
         <v>207484</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>445</v>
+        <v>351</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="M43" s="7">
         <v>504</v>
@@ -6531,13 +6585,13 @@
         <v>528213</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +6606,13 @@
         <v>387395</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>440</v>
+        <v>555</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="H44" s="7">
         <v>245</v>
@@ -6567,13 +6621,13 @@
         <v>255401</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>413</v>
+        <v>560</v>
       </c>
       <c r="M44" s="7">
         <v>605</v>
@@ -6582,13 +6636,13 @@
         <v>642796</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6711-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85475CC5-553C-4A60-867E-DBDC134DAD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5668687B-8B3B-4F5B-8F95-5B37CDCD7EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDFFDC24-49ED-4933-8F7E-F0DCF649E50A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{49441F10-DE5E-4BED-983D-F52F968EB771}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="563">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -219,7 +219,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>12,13%</t>
@@ -357,7 +357,7 @@
     <t>46,82%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>11,49%</t>
@@ -495,7 +495,7 @@
     <t>50,81%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>8,4%</t>
@@ -630,7 +630,7 @@
     <t>49,32%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>10,14%</t>
@@ -759,7 +759,7 @@
     <t>62,67%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>33,14%</t>
@@ -813,6 +813,12 @@
     <t>84,82%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>9,59%</t>
   </si>
   <si>
@@ -1563,13 +1569,10 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -1578,25 +1581,16 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>77,21%</t>
@@ -1605,13 +1599,16 @@
     <t>17,82%</t>
   </si>
   <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>14,69%</t>
@@ -2140,8 +2137,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCCD05B-95DE-4404-AB69-E761C36AA1C4}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331A242B-33D7-4B64-8768-E92CD9D8F454}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4100,55 +4097,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>258</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>148</v>
-      </c>
-      <c r="D40" s="7">
-        <v>159106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>259</v>
       </c>
       <c r="H40" s="7">
-        <v>120</v>
-      </c>
-      <c r="I40" s="7">
-        <v>130995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M40" s="7">
-        <v>268</v>
-      </c>
-      <c r="N40" s="7">
-        <v>290101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,49 +4148,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>81</v>
-      </c>
-      <c r="D41" s="7">
-        <v>85180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H41" s="7">
-        <v>65</v>
-      </c>
-      <c r="I41" s="7">
-        <v>72949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="M41" s="7">
-        <v>146</v>
-      </c>
-      <c r="N41" s="7">
-        <v>158129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,49 +4193,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>247</v>
-      </c>
-      <c r="D42" s="7">
-        <v>265481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="H42" s="7">
-        <v>130</v>
-      </c>
-      <c r="I42" s="7">
-        <v>139432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="M42" s="7">
-        <v>377</v>
-      </c>
-      <c r="N42" s="7">
-        <v>404913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,49 +4238,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>255</v>
-      </c>
-      <c r="D43" s="7">
-        <v>262402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="H43" s="7">
-        <v>169</v>
-      </c>
-      <c r="I43" s="7">
-        <v>179957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="M43" s="7">
-        <v>424</v>
-      </c>
-      <c r="N43" s="7">
-        <v>442358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,49 +4283,43 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>600</v>
-      </c>
-      <c r="D44" s="7">
-        <v>645791</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="H44" s="7">
-        <v>389</v>
-      </c>
-      <c r="I44" s="7">
-        <v>421957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="M44" s="7">
-        <v>989</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1067748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,63 +4328,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>148</v>
+      </c>
+      <c r="D46" s="7">
+        <v>159106</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H46" s="7">
+        <v>120</v>
+      </c>
+      <c r="I46" s="7">
+        <v>130995</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M46" s="7">
+        <v>268</v>
+      </c>
+      <c r="N46" s="7">
+        <v>290101</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>81</v>
+      </c>
+      <c r="D47" s="7">
+        <v>85180</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" s="7">
+        <v>65</v>
+      </c>
+      <c r="I47" s="7">
+        <v>72949</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M47" s="7">
+        <v>146</v>
+      </c>
+      <c r="N47" s="7">
+        <v>158129</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>247</v>
+      </c>
+      <c r="D48" s="7">
+        <v>265481</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="7">
+        <v>130</v>
+      </c>
+      <c r="I48" s="7">
+        <v>139432</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M48" s="7">
+        <v>377</v>
+      </c>
+      <c r="N48" s="7">
+        <v>404913</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>255</v>
+      </c>
+      <c r="D49" s="7">
+        <v>262402</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="7">
+        <v>169</v>
+      </c>
+      <c r="I49" s="7">
+        <v>179957</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M49" s="7">
+        <v>424</v>
+      </c>
+      <c r="N49" s="7">
+        <v>442358</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>600</v>
+      </c>
+      <c r="D50" s="7">
+        <v>645792</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H50" s="7">
+        <v>389</v>
+      </c>
+      <c r="I50" s="7">
+        <v>421957</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M50" s="7">
+        <v>989</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1067748</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1331</v>
       </c>
-      <c r="D45" s="7">
-        <v>1417960</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>1417961</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>873</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>945290</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>2204</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2363250</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>299</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4430,8 +4700,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E642A7-3062-41A4-9536-B1B0623989A7}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9E8181-41CA-40E5-8F26-32159D0F185A}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4447,7 +4717,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +4824,13 @@
         <v>14277</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4569,13 +4839,13 @@
         <v>13287</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4584,13 +4854,13 @@
         <v>27564</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4875,13 @@
         <v>13709</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4620,13 +4890,13 @@
         <v>13777</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -4635,13 +4905,13 @@
         <v>27486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4926,13 @@
         <v>19682</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4671,13 +4941,13 @@
         <v>20864</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -4686,13 +4956,13 @@
         <v>40547</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4977,13 @@
         <v>14727</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4722,13 +4992,13 @@
         <v>24290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4737,13 +5007,13 @@
         <v>39017</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +5028,13 @@
         <v>16714</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4773,13 +5043,13 @@
         <v>19637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -4788,13 +5058,13 @@
         <v>36351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +5132,13 @@
         <v>59624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4877,13 +5147,13 @@
         <v>45892</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -4895,10 +5165,10 @@
         <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +5183,13 @@
         <v>54745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -4928,13 +5198,13 @@
         <v>50657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -4943,10 +5213,10 @@
         <v>105403</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>84</v>
@@ -4964,13 +5234,13 @@
         <v>70743</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -4979,13 +5249,13 @@
         <v>60846</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>133</v>
@@ -4994,13 +5264,13 @@
         <v>131589</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5285,13 @@
         <v>81003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -5030,13 +5300,13 @@
         <v>60780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -5048,10 +5318,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5336,13 @@
         <v>78070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -5081,13 +5351,13 @@
         <v>55540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -5096,13 +5366,13 @@
         <v>133610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5440,13 @@
         <v>55458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5185,13 +5455,13 @@
         <v>57130</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -5200,10 +5470,10 @@
         <v>112588</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>186</v>
@@ -5221,13 +5491,13 @@
         <v>58180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -5236,13 +5506,13 @@
         <v>33671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -5254,10 +5524,10 @@
         <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5542,13 @@
         <v>103170</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -5287,13 +5557,13 @@
         <v>81371</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M18" s="7">
         <v>183</v>
@@ -5302,13 +5572,13 @@
         <v>184541</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5593,13 @@
         <v>106643</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -5338,13 +5608,13 @@
         <v>57950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>158</v>
@@ -5353,13 +5623,13 @@
         <v>164593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5644,13 @@
         <v>136136</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>157</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -5389,13 +5659,13 @@
         <v>87292</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>215</v>
@@ -5404,13 +5674,13 @@
         <v>223428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,7 +5722,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -5478,13 +5748,13 @@
         <v>64498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5493,13 +5763,13 @@
         <v>51191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -5508,13 +5778,13 @@
         <v>115689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5799,13 @@
         <v>37477</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -5544,13 +5814,13 @@
         <v>30152</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -5559,13 +5829,13 @@
         <v>67629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5850,13 @@
         <v>89029</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -5595,13 +5865,13 @@
         <v>50699</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -5610,13 +5880,13 @@
         <v>139728</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5901,13 @@
         <v>87629</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5646,13 +5916,13 @@
         <v>48634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -5661,13 +5931,13 @@
         <v>136263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5952,13 @@
         <v>89095</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -5697,13 +5967,13 @@
         <v>62443</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>138</v>
@@ -5712,13 +5982,13 @@
         <v>151537</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +6056,13 @@
         <v>15121</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -5801,13 +6071,13 @@
         <v>26901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -5816,13 +6086,13 @@
         <v>42021</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +6107,13 @@
         <v>18282</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5852,13 +6122,13 @@
         <v>15165</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -5867,10 +6137,10 @@
         <v>33448</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>180</v>
@@ -5888,13 +6158,13 @@
         <v>39151</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -5903,13 +6173,13 @@
         <v>21501</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -5918,13 +6188,13 @@
         <v>60652</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +6209,13 @@
         <v>29932</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -5954,13 +6224,13 @@
         <v>15830</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -5969,13 +6239,13 @@
         <v>45762</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +6260,13 @@
         <v>63240</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -6005,13 +6275,13 @@
         <v>26482</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M32" s="7">
         <v>78</v>
@@ -6020,13 +6290,13 @@
         <v>89722</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,7 +6370,7 @@
         <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>509</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6115,7 +6385,7 @@
         <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6130,7 +6400,7 @@
         <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>508</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,7 +6421,7 @@
         <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>509</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6166,7 +6436,7 @@
         <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6181,7 +6451,7 @@
         <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>508</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6466,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6211,13 +6481,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>208</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6226,13 +6496,13 @@
         <v>2233</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>208</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,19 +6511,19 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>515</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6268,22 +6538,22 @@
         <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>517</v>
+        <v>208</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>518</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,10 +6568,10 @@
         <v>4140</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>178</v>
+        <v>517</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>242</v>
@@ -6313,10 +6583,10 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>242</v>
@@ -6328,13 +6598,13 @@
         <v>8148</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>524</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,10 +6613,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -6373,10 +6643,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -6390,55 +6660,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>258</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>208978</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>525</v>
+        <v>208</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>526</v>
+        <v>243</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H40" s="7">
-        <v>187</v>
-      </c>
-      <c r="I40" s="7">
-        <v>194402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>528</v>
+        <v>259</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>529</v>
+        <v>259</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>530</v>
+        <v>259</v>
       </c>
       <c r="M40" s="7">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>403380</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>531</v>
+        <v>208</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>532</v>
+        <v>243</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,49 +6715,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>182394</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>534</v>
+        <v>208</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>535</v>
+        <v>243</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="H41" s="7">
-        <v>142</v>
-      </c>
-      <c r="I41" s="7">
-        <v>143422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>537</v>
+        <v>259</v>
       </c>
       <c r="M41" s="7">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>325816</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>538</v>
+        <v>208</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>539</v>
+        <v>243</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,49 +6764,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>322826</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>541</v>
+        <v>208</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>542</v>
+        <v>243</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="H42" s="7">
-        <v>234</v>
-      </c>
-      <c r="I42" s="7">
-        <v>236464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>419</v>
+        <v>259</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>544</v>
+        <v>259</v>
       </c>
       <c r="M42" s="7">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>559290</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>545</v>
+        <v>208</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,49 +6813,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>320729</v>
+        <v>795</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>547</v>
+        <v>242</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>549</v>
+        <v>59</v>
       </c>
       <c r="H43" s="7">
-        <v>205</v>
-      </c>
-      <c r="I43" s="7">
-        <v>207484</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>550</v>
+        <v>259</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>551</v>
+        <v>259</v>
       </c>
       <c r="M43" s="7">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>528213</v>
+        <v>795</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>552</v>
+        <v>242</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>554</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,49 +6862,47 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>387395</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>555</v>
+        <v>208</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>556</v>
+        <v>243</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="H44" s="7">
-        <v>245</v>
-      </c>
-      <c r="I44" s="7">
-        <v>255401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>558</v>
+        <v>259</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>559</v>
+        <v>259</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>560</v>
+        <v>259</v>
       </c>
       <c r="M44" s="7">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>642796</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>561</v>
+        <v>208</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>562</v>
+        <v>243</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>563</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,63 +6911,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>190</v>
+      </c>
+      <c r="D46" s="7">
+        <v>208978</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="H46" s="7">
+        <v>187</v>
+      </c>
+      <c r="I46" s="7">
+        <v>194402</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="M46" s="7">
+        <v>377</v>
+      </c>
+      <c r="N46" s="7">
+        <v>403380</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>168</v>
+      </c>
+      <c r="D47" s="7">
+        <v>182394</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="H47" s="7">
+        <v>142</v>
+      </c>
+      <c r="I47" s="7">
+        <v>143422</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="M47" s="7">
+        <v>310</v>
+      </c>
+      <c r="N47" s="7">
+        <v>325816</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>306</v>
+      </c>
+      <c r="D48" s="7">
+        <v>322826</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="H48" s="7">
+        <v>234</v>
+      </c>
+      <c r="I48" s="7">
+        <v>236464</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="M48" s="7">
+        <v>540</v>
+      </c>
+      <c r="N48" s="7">
+        <v>559290</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>299</v>
+      </c>
+      <c r="D49" s="7">
+        <v>320729</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H49" s="7">
+        <v>205</v>
+      </c>
+      <c r="I49" s="7">
+        <v>207484</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="M49" s="7">
+        <v>504</v>
+      </c>
+      <c r="N49" s="7">
+        <v>528213</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>360</v>
+      </c>
+      <c r="D50" s="7">
+        <v>387395</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H50" s="7">
+        <v>245</v>
+      </c>
+      <c r="I50" s="7">
+        <v>255401</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="M50" s="7">
+        <v>605</v>
+      </c>
+      <c r="N50" s="7">
+        <v>642796</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>299</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
